--- a/public/projects/Gym tracker.xlsx
+++ b/public/projects/Gym tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Portfolio\gym tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Portfolio\portfolio\public\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C112B62-566B-40B6-B9ED-15B32AF333A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8211E816-A2DE-4AF1-839C-83261F7A747A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F3726037-B9D2-4850-AADC-0AC892BF7F02}"/>
+    <workbookView xWindow="-19298" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="2" xr2:uid="{F3726037-B9D2-4850-AADC-0AC892BF7F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Warm up percentage" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Historical lifts" sheetId="6" state="hidden" r:id="rId4"/>
     <sheet name="Graphs" sheetId="7" state="hidden" r:id="rId5"/>
     <sheet name="Calories" sheetId="5" r:id="rId6"/>
-    <sheet name="Basic Protein food" sheetId="1" state="hidden" r:id="rId7"/>
+    <sheet name="Basic Protein food" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2407,7 +2407,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,14 +2464,14 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>K3</f>
-        <v>61.29</v>
+        <v>120.31</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="8">
         <f>(_xlfn.XLOOKUP(B2,A5:A17,C5:C17))*A2</f>
-        <v>68.100000000000009</v>
+        <v>138.28735632183907</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="5" t="s">
@@ -2515,12 +2515,16 @@
       <c r="G3" s="2">
         <v>45</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1">
         <f>(F3+2*(G3+H3+I3))*0.454</f>
-        <v>61.29</v>
+        <v>120.31</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>71</v>
@@ -2595,7 +2599,7 @@
       </c>
       <c r="D5" s="1">
         <f>$C$2*B5</f>
-        <v>44.265000000000008</v>
+        <v>89.886781609195396</v>
       </c>
       <c r="N5" s="1">
         <v>15</v>
@@ -2609,7 +2613,7 @@
       </c>
       <c r="Q5" s="1">
         <f>$C$2*O5</f>
-        <v>44.265000000000008</v>
+        <v>89.886781609195396</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -2625,7 +2629,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D17" si="2">$C$2*B6</f>
-        <v>45.62700000000001</v>
+        <v>92.652528735632188</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>63</v>
@@ -2647,7 +2651,7 @@
       </c>
       <c r="Q6" s="1">
         <f t="shared" ref="Q6:Q17" si="3">$C$2*O6</f>
-        <v>45.62700000000001</v>
+        <v>92.652528735632188</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2663,7 +2667,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>47.67</v>
+        <v>96.801149425287349</v>
       </c>
       <c r="N7" s="1">
         <v>11</v>
@@ -2677,7 +2681,7 @@
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="3"/>
-        <v>47.67</v>
+        <v>96.801149425287349</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2693,7 +2697,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
-        <v>51.075000000000003</v>
+        <v>103.7155172413793</v>
       </c>
       <c r="N8" s="1">
         <v>10</v>
@@ -2707,7 +2711,7 @@
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="3"/>
-        <v>51.075000000000003</v>
+        <v>103.7155172413793</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2723,7 +2727,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>52.437000000000005</v>
+        <v>106.48126436781608</v>
       </c>
       <c r="N9" s="1">
         <v>9</v>
@@ -2737,7 +2741,7 @@
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="3"/>
-        <v>52.437000000000005</v>
+        <v>106.48126436781608</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2753,7 +2757,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>54.480000000000011</v>
+        <v>110.62988505747126</v>
       </c>
       <c r="N10" s="1">
         <v>8</v>
@@ -2767,7 +2771,7 @@
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="3"/>
-        <v>54.480000000000011</v>
+        <v>110.62988505747126</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2783,7 +2787,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>56.523000000000003</v>
+        <v>114.77850574712642</v>
       </c>
       <c r="N11" s="1">
         <v>7</v>
@@ -2797,7 +2801,7 @@
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="3"/>
-        <v>56.523000000000003</v>
+        <v>114.77850574712642</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2813,7 +2817,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>57.885000000000005</v>
+        <v>117.54425287356321</v>
       </c>
       <c r="N12" s="1">
         <v>6</v>
@@ -2827,7 +2831,7 @@
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="3"/>
-        <v>57.885000000000005</v>
+        <v>117.54425287356321</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2843,7 +2847,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>59.247000000000007</v>
+        <v>120.30999999999999</v>
       </c>
       <c r="N13" s="1">
         <v>5</v>
@@ -2857,7 +2861,7 @@
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="3"/>
-        <v>59.247000000000007</v>
+        <v>120.30999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2873,7 +2877,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>61.290000000000006</v>
+        <v>124.45862068965516</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
@@ -2887,7 +2891,7 @@
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="3"/>
-        <v>61.290000000000006</v>
+        <v>124.45862068965516</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2903,7 +2907,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>63.333000000000013</v>
+        <v>128.60724137931035</v>
       </c>
       <c r="N15" s="1">
         <v>3</v>
@@ -2917,7 +2921,7 @@
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="3"/>
-        <v>63.333000000000013</v>
+        <v>128.60724137931035</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2933,7 +2937,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>64.695000000000007</v>
+        <v>131.37298850574712</v>
       </c>
       <c r="N16" s="1">
         <v>2</v>
@@ -2947,7 +2951,7 @@
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="3"/>
-        <v>64.695000000000007</v>
+        <v>131.37298850574712</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2963,7 +2967,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>68.100000000000009</v>
+        <v>138.28735632183907</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
@@ -2977,7 +2981,7 @@
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="3"/>
-        <v>68.100000000000009</v>
+        <v>138.28735632183907</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -3014,7 +3018,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,8 +3057,7 @@
         <v>107.52631578947368</v>
       </c>
       <c r="D2" s="2">
-        <f>0.454*((45*5))</f>
-        <v>102.15</v>
+        <v>113</v>
       </c>
       <c r="F2" s="2">
         <v>79</v>
@@ -3422,7 +3425,7 @@
       </c>
       <c r="G3" s="21">
         <f ca="1">TODAY()</f>
-        <v>45364</v>
+        <v>45389</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3435,7 +3438,7 @@
       </c>
       <c r="P3" s="21">
         <f ca="1">TODAY()</f>
-        <v>45364</v>
+        <v>45389</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -3448,7 +3451,7 @@
       </c>
       <c r="Y3" s="21">
         <f ca="1">TODAY()</f>
-        <v>45364</v>
+        <v>45389</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -5418,10 +5421,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4527BEB-4E69-4001-A708-F71DA4598718}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5442,7 +5445,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="1">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>45</v>
@@ -5463,7 +5466,7 @@
       </c>
       <c r="F2" s="1">
         <f>F1*I1</f>
-        <v>118.4</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5479,7 +5482,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -5514,7 +5517,7 @@
       </c>
       <c r="D8" s="1">
         <f>F2-C8</f>
-        <v>104.4</v>
+        <v>115.5</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>61</v>
@@ -5528,7 +5531,7 @@
       </c>
       <c r="I8" s="1">
         <f>F2-H8</f>
-        <v>90.4</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5537,14 +5540,14 @@
       </c>
       <c r="B10" s="15">
         <f>100*D8/B4</f>
-        <v>614.11764705882354</v>
+        <v>550</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="15">
         <f>100*I8/B4</f>
-        <v>531.76470588235293</v>
+        <v>483.33333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5553,14 +5556,14 @@
       </c>
       <c r="B11" s="15">
         <f>100*D8/B5</f>
-        <v>464</v>
+        <v>513.33333333333337</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="15">
         <f>100*I8/B5</f>
-        <v>401.77777777777777</v>
+        <v>451.11111111111109</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5569,14 +5572,14 @@
       </c>
       <c r="B12" s="15">
         <f>100*D8/B6</f>
-        <v>549.47368421052636</v>
+        <v>607.89473684210532</v>
       </c>
       <c r="F12" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="15">
         <f>100*I8/B6</f>
-        <v>475.78947368421052</v>
+        <v>534.21052631578948</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5590,7 +5593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -5612,15 +5615,19 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>2300/550</f>
+        <v>4.1818181818181817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>SUM(C16:C19)</f>
         <v>40.5</v>
